--- a/python/two/nn Error t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/nn Error t1=6 t2=5 δ=0.4.xlsx
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86e-10</v>
+        <v>-0.000117</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29e-08</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>8.94e-12</v>
+        <v>-4.39e-05</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.81e-08</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03e-11</v>
+        <v>-5.010000000000001e-07</v>
       </c>
     </row>
     <row r="7">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.09e-22</v>
+        <v>1.21e-05</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.1e-24</v>
+        <v>6.2e-08</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
